--- a/Relational Processing Ctx 1/spreadsheetEasy_RelationalProcessing_Ctx1.xlsx
+++ b/Relational Processing Ctx 1/spreadsheetEasy_RelationalProcessing_Ctx1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\PycharmProjects\BeRNN_Exp\Relational Processing Ctx 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8285D4-D3E5-4539-A308-4A0F717AA42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55887226-1AF3-4919-8770-CACA8AED71D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -664,10 +664,13 @@
   <dimension ref="A1:AO241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1"/>
+      <selection sqref="A1:AO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
